--- a/medicine/Pharmacie/Mamouna_Touré/Mamouna_Touré.xlsx
+++ b/medicine/Pharmacie/Mamouna_Touré/Mamouna_Touré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mamouna_Tour%C3%A9</t>
+          <t>Mamouna_Touré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mamouna Touré né le 28 avril 1922 à Kindia et mort le 14 septembre 1986, est un pharmacien, diplomate et personnalité politique guinéen[1].
-Premier pharmacien guinéen et premier pharmacien inspecteur noir de l'AOF[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mamouna Touré né le 28 avril 1922 à Kindia et mort le 14 septembre 1986, est un pharmacien, diplomate et personnalité politique guinéen.
+Premier pharmacien guinéen et premier pharmacien inspecteur noir de l'AOF.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mamouna_Tour%C3%A9</t>
+          <t>Mamouna_Touré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplôme de la faculté de pharmacie de Paris, Mamouna Touré revient en Guinée quinze jours après la proclamation de l'indépendance de la Guinée, il met en place la première école de préparateur en pharmacie de Guinée puis la faculté de pharmacie en 1969. 
 Directeur général de la pharma Guinée de 1959 en 1967. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mamouna_Tour%C3%A9</t>
+          <t>Mamouna_Touré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 : Stèle érigée à son effigie au siège de la pharmacie centrale de Guinée à Dixinn[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022 : Stèle érigée à son effigie au siège de la pharmacie centrale de Guinée à Dixinn.</t>
         </is>
       </c>
     </row>
